--- a/10. 프로덕트_백로그/박정현_박범진-프로덕트+백로그+리스트.xlsx
+++ b/10. 프로덕트_백로그/박정현_박범진-프로덕트+백로그+리스트.xlsx
@@ -70,14 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 기능 추가 및 페이지 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인, 회원가입 기능 추가 및 페이지 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인 페이지 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +143,14 @@
   </si>
   <si>
     <t>Open API를 이용한 관련상품 유튜브 영상 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 기능 페이지 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 회원가입 페이지 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +583,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D19:D23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -635,7 +635,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -643,10 +643,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -674,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -719,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -734,10 +734,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
@@ -749,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -764,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
@@ -781,10 +781,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="11">
         <v>2</v>
@@ -798,10 +798,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="11">
         <v>2</v>
@@ -815,10 +815,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11">
         <v>3</v>
@@ -832,10 +832,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="11">
         <v>3</v>
@@ -849,10 +849,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="11">
         <v>3</v>
@@ -866,10 +866,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2">
         <v>4</v>
@@ -883,10 +883,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" s="11">
         <v>4</v>
@@ -900,10 +900,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" s="11">
         <v>4</v>
@@ -917,10 +917,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2">
         <v>4</v>
